--- a/crudo/scripts/app_DT21/diccionario_dt21.xlsx
+++ b/crudo/scripts/app_DT21/diccionario_dt21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\scripts\app_DT21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1649B9E-EA98-481A-BAAA-69030B34A00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA1015-2D28-48F1-A052-A81428E097F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,35 +52,35 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Salario nominal promedio del sector</t>
-  </si>
-  <si>
-    <t>Porcentaje de los puestos de trabajo correspondiente al sector</t>
-  </si>
-  <si>
-    <t>Total de puestos de trabajo del sector</t>
-  </si>
-  <si>
-    <t>Masa salarial del sector (en millones de $)</t>
-  </si>
-  <si>
-    <t>Salario real promedio del sector ($ de 2021)</t>
-  </si>
-  <si>
-    <t>Masa salarial real del sector ($ de 2021)</t>
-  </si>
-  <si>
-    <t>Participación en el valor agregado bruto a precios básicos</t>
-  </si>
-  <si>
-    <t>Participación en el producto interno bruto a precios de mercado</t>
+    <t>Total de puestos de trabajo (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>Salario nominal promedio (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial nomial en millones de $ (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Porcentaje del total de puestos de trabajo (por sector)</t>
+  </si>
+  <si>
+    <t>Salario real promedio en $ de 2021 (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial real en millones de $ de 2021 (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Participación en el Valor Agregado Bruto a precios básicos (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>Participación en el Producto Interno Bruto a precios de mercado (por sector o total de la economía)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,16 +88,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,12 +124,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,77 +462,78 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
